--- a/data/trans_bre/P14B23-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 11,76</t>
+          <t>6,86; 11,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 12,02</t>
+          <t>7,31; 12,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,22</t>
+          <t>2,38; 8,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>121,43; 333,53</t>
+          <t>112,85; 334,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>145,11; 482,62</t>
+          <t>169,5; 484,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,71; 135,79</t>
+          <t>23,64; 139,49</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,46</t>
+          <t>1,92; 4,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,39</t>
+          <t>1,96; 4,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,04</t>
+          <t>1,61; 5,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,91; 296,65</t>
+          <t>75,24; 304,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,67; 316,93</t>
+          <t>78,37; 291,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,45; 230,3</t>
+          <t>54,08; 259,76</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,2</t>
+          <t>-0,21; 3,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,41</t>
+          <t>-0,15; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,81</t>
+          <t>-1,15; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-83,32; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,77; —</t>
+          <t>-42,56; 1181,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 145,78</t>
+          <t>-29,91; 135,61</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,71</t>
+          <t>4,47; 6,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,81</t>
+          <t>3,7; 5,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,86</t>
+          <t>2,1; 4,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>151,41; 333,48</t>
+          <t>148,57; 320,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>158,39; 361,36</t>
+          <t>159,95; 366,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,85; 167,73</t>
+          <t>55,21; 168,64</t>
         </is>
       </c>
     </row>
